--- a/datosNumero.xlsx
+++ b/datosNumero.xlsx
@@ -28,7 +28,7 @@
     <t>Pedro2</t>
   </si>
   <si>
-    <t>gatito</t>
+    <t>Pedro</t>
   </si>
 </sst>
 </file>
